--- a/LGC_Motiv_analysis/nutrition/BLS-Dateiaufbau.xlsx
+++ b/LGC_Motiv_analysis/nutrition/BLS-Dateiaufbau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\bls_3.02\BLS_3.02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Clairis\Documents\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8D1D1-67D8-4798-9335-2B8B5EA39CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC84FA4-49C3-4FCA-B98E-39E01CCE95C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS-Dateiaufbau" sheetId="1" r:id="rId1"/>
@@ -1401,9 +1401,6 @@
     <t>choléstérol</t>
   </si>
   <si>
-    <t>Rapport P/S</t>
-  </si>
-  <si>
     <t>Unités de pain</t>
   </si>
   <si>
@@ -1411,6 +1408,9 @@
   </si>
   <si>
     <t>total Portion moyenne</t>
+  </si>
+  <si>
+    <t>Rapport P/S (acides gras Polyinsaturés/Saturés)</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5151,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8850,7 +8850,7 @@
         <v>281</v>
       </c>
       <c r="D153" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E153" t="s">
         <v>301</v>
@@ -8873,7 +8873,7 @@
         <v>283</v>
       </c>
       <c r="D154" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E154" t="s">
         <v>301</v>
@@ -8899,7 +8899,7 @@
         <v>285</v>
       </c>
       <c r="D155" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E155" t="s">
         <v>301</v>
@@ -8925,7 +8925,7 @@
         <v>287</v>
       </c>
       <c r="D156" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E156" t="s">
         <v>301</v>
